--- a/myaddons/cj_sale/static/template/客情单导入模板.xlsx
+++ b/myaddons/cj_sale/static/template/客情单导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,11 +39,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>填写要求：
-1、物料编码、数量、单价必须填写
-2、数量，价格必须是数字，且须大于0
-3、单价为含税单价，税率填数字，如：13
-4、不可以改变表格格式</t>
+1、订单信息只填写在每个订单的第一行，且订单编号、订单日期、门店编码必须填写
+2、物料编码、数量、单价必须填写
+3、数量，价格必须是数字，且须大于0
+4、单价为含税单价，税率填数字，如：13
+5、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -106,6 +135,52 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -131,21 +206,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -466,210 +541,288 @@
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E21" s="5"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myaddons/cj_sale/static/template/客情单导入模板.xlsx
+++ b/myaddons/cj_sale/static/template/客情单导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23,10 +23,6 @@
     <t>商品名称</t>
   </si>
   <si>
-    <t>税率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客情单导入模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,26 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>会员ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门店编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>会员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>填写要求：
-1、订单信息只填写在每个订单的第一行，且订单编号、订单日期、门店编码必须填写
-2、物料编码、数量、单价必须填写
+1、订单信息只填写在每个订单的第一行，且订单序号必须填写
+2、商品编码、数量、单价必须填写
 3、数量，价格必须是数字，且须大于0
-4、单价为含税单价，税率填数字，如：13
+4、单价为含税单价
 5、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -220,6 +212,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,28 +522,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -557,12 +550,10 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -571,58 +562,48 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -631,10 +612,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -643,10 +622,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -655,10 +632,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -667,10 +642,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -679,10 +652,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -691,10 +662,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -703,10 +672,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -715,10 +682,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -727,10 +692,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -739,10 +702,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -751,10 +712,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -763,10 +722,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -775,10 +732,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -787,10 +742,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -799,10 +752,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -811,18 +762,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E21" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
